--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187AF2F0-7E8A-463E-8125-6FA48A4DE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8CD46A-870C-48EB-A9F5-C0AC97313F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>customer_id</t>
   </si>
@@ -189,10 +189,13 @@
     <t>Anand Swarup</t>
   </si>
   <si>
-    <t>shyam_ghosh@technologymindz.com</t>
-  </si>
-  <si>
     <t>Shyam ghosh</t>
+  </si>
+  <si>
+    <t>specific_prompt</t>
+  </si>
+  <si>
+    <t>he is getting alergies of dust particals</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,6 +419,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +774,11 @@
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -810,8 +815,11 @@
       <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="31" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -843,7 +851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -875,7 +883,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -906,18 +914,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="29">
         <v>8107061392</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -934,8 +942,11 @@
       <c r="L5" s="5">
         <v>91</v>
       </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -962,7 +973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -989,7 +1000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1016,7 +1027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1049,7 +1060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>

--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD6A0F6-4185-41EB-B843-287E108E55BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB34808-288D-4FA6-A007-F5D207A18E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>customer_id</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>he is getting alergies of dust particals</t>
+  </si>
+  <si>
+    <t>shyam_ghosh@technologymindz.com</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +828,9 @@
       <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="22">
+        <v>3425142353545</v>
+      </c>
       <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
@@ -830,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="16"/>
@@ -889,8 +897,8 @@
       <c r="C4" s="8">
         <v>8107061392</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>23</v>
+      <c r="D4" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
@@ -1124,6 +1132,7 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{962D2074-1D24-4143-B47E-20143E2E128C}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{316E913C-1F7F-4B8F-940C-752F64948290}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{7CB6BB57-8A09-4239-87EA-A8DC1CE20615}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB34808-288D-4FA6-A007-F5D207A18E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B948E1-E8D4-460C-8ED1-968E548BD696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2595" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>customer_id</t>
   </si>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="M7" sqref="M5:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -900,7 +900,9 @@
       <c r="D4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>

--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B948E1-E8D4-460C-8ED1-968E548BD696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA1B5A0-7E5F-4AEA-8A6B-5D607FF89467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2595" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>customer_id</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Alice is interested in the premium package that includes advanced analytics, priority support, and additional storage capacity. She wants a detailed demo before making the decision.</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>A Company</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Charlie is evaluating enterprise-level solutions with a strong emphasis on scalability, integration with his existing ERP system, and compliance with international data protection regulations. He also needs a custom training program for his team.</t>
   </si>
   <si>
-    <t>C Company</t>
-  </si>
-  <si>
     <t>Berlin, Germany</t>
   </si>
   <si>
@@ -185,19 +179,37 @@
     <t>Anand Swarup</t>
   </si>
   <si>
-    <t>Shyam ghosh</t>
-  </si>
-  <si>
     <t>specific_prompt</t>
   </si>
   <si>
-    <t>he is getting alergies of dust particals</t>
-  </si>
-  <si>
-    <t>shyam_ghosh@technologymindz.com</t>
-  </si>
-  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>riya_soni@technologymindz.com</t>
+  </si>
+  <si>
+    <t>Riya soni</t>
+  </si>
+  <si>
+    <t>Alice is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. She wants a detailed demo before making the decision.</t>
+  </si>
+  <si>
+    <t>before  greeting use ai chatbot inquery</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>vivek is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. He wants a detailed demo before making the decision.</t>
+  </si>
+  <si>
+    <t>FMS</t>
+  </si>
+  <si>
+    <t>client is  more quality conscious.</t>
+  </si>
+  <si>
+    <t>v@technologymindz.com</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,6 +434,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M7" sqref="M5:M7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -838,18 +853,18 @@
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="16"/>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="5">
         <v>91</v>
@@ -860,28 +875,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8">
         <v>8146994031</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
       </c>
       <c r="L3" s="5">
         <v>91</v>
@@ -892,65 +907,71 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8">
-        <v>8107061392</v>
+        <v>9001985764</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
       </c>
       <c r="L4" s="5">
         <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="29">
         <v>8107061392</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
       </c>
       <c r="L5" s="5">
         <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -958,23 +979,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
       </c>
       <c r="L6" s="5">
         <v>91</v>
@@ -985,23 +1006,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" s="5">
         <v>91</v>
@@ -1012,26 +1033,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1039,29 +1060,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
         <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
       </c>
       <c r="L9" s="5">
         <v>91</v>
@@ -1072,26 +1093,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L10" s="5">
         <v>91</v>
@@ -1102,29 +1123,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
       </c>
       <c r="L11" s="5">
         <v>91</v>

--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA1B5A0-7E5F-4AEA-8A6B-5D607FF89467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E050D9E9-1CC1-4EB1-ACB8-39D49B38501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>customer_id</t>
   </si>
@@ -77,6 +74,9 @@
     <t>country_code</t>
   </si>
   <si>
+    <t>specific_prompt</t>
+  </si>
+  <si>
     <t>Alice1 Johnson</t>
   </si>
   <si>
@@ -86,6 +86,9 @@
     <t>Alice is interested in the premium package that includes advanced analytics, priority support, and additional storage capacity. She wants a detailed demo before making the decision.</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>A Company</t>
   </si>
   <si>
@@ -95,128 +98,125 @@
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Anand Swarup</t>
+  </si>
+  <si>
+    <t>anand_swarup@technologymindz.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B Company</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>v@technologymindz.com</t>
+  </si>
+  <si>
+    <t>vivek is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. He wants a detailed demo before making the decision.</t>
+  </si>
+  <si>
+    <t>FMS</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>client is  more quality conscious.</t>
+  </si>
+  <si>
+    <t>shyam ghosh</t>
+  </si>
+  <si>
+    <t>shyam_ghosh@technologymindz.com</t>
+  </si>
+  <si>
+    <t>shyam is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. She wants a detailed demo before making the decision.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>D Company</t>
+  </si>
+  <si>
+    <t>before  greeting the user, use ai chatbot inquery</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
     <t>bob.smith@example.com</t>
   </si>
   <si>
-    <t>B Company</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Automobile</t>
+    <t>E Company</t>
+  </si>
+  <si>
+    <t>Francis</t>
   </si>
   <si>
     <t>charlie.brown@example.com</t>
   </si>
   <si>
+    <t>F Company</t>
+  </si>
+  <si>
+    <t>Gargi</t>
+  </si>
+  <si>
+    <t>He mentioned that decision-making will involve multiple stakeholders, and the procurement cycle might take up to three months.</t>
+  </si>
+  <si>
+    <t>G Company</t>
+  </si>
+  <si>
+    <t>Hailey</t>
+  </si>
+  <si>
+    <t>We should prepare detailed documentation, case studies, and a tailored presentation for his board of directors.</t>
+  </si>
+  <si>
+    <t>H Company</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Bob is looking for a basic support plan primarily to cover troubleshooting and regular software updates. He has budget constraints and does not want advanced features right now.</t>
+  </si>
+  <si>
+    <t>I Company</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
     <t>Charlie is evaluating enterprise-level solutions with a strong emphasis on scalability, integration with his existing ERP system, and compliance with international data protection regulations. He also needs a custom training program for his team.</t>
   </si>
   <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>D Company</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>E Company</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>F Company</t>
-  </si>
-  <si>
-    <t>Gargi</t>
-  </si>
-  <si>
-    <t>He mentioned that decision-making will involve multiple stakeholders, and the procurement cycle might take up to three months.</t>
-  </si>
-  <si>
-    <t>G Company</t>
-  </si>
-  <si>
-    <t>Hailey</t>
-  </si>
-  <si>
-    <t>We should prepare detailed documentation, case studies, and a tailored presentation for his board of directors.</t>
-  </si>
-  <si>
-    <t>H Company</t>
-  </si>
-  <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
-    <t>Bob is looking for a basic support plan primarily to cover troubleshooting and regular software updates. He has budget constraints and does not want advanced features right now.</t>
-  </si>
-  <si>
-    <t>I Company</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
     <t>Charlie has shown strong interest in a long-term partnership if the enterprise solution aligns with his company’s compliance and integration needs.</t>
   </si>
   <si>
     <t>J Company</t>
-  </si>
-  <si>
-    <t>anand_swarup@technologymindz.com</t>
-  </si>
-  <si>
-    <t>Anand Swarup</t>
-  </si>
-  <si>
-    <t>specific_prompt</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>riya_soni@technologymindz.com</t>
-  </si>
-  <si>
-    <t>Riya soni</t>
-  </si>
-  <si>
-    <t>Alice is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. She wants a detailed demo before making the decision.</t>
-  </si>
-  <si>
-    <t>before  greeting use ai chatbot inquery</t>
-  </si>
-  <si>
-    <t>vivek</t>
-  </si>
-  <si>
-    <t>vivek is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. He wants a detailed demo before making the decision.</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>client is  more quality conscious.</t>
-  </si>
-  <si>
-    <t>v@technologymindz.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -432,10 +432,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,11 +770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
@@ -795,7 +791,7 @@
     <col min="13" max="13" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -832,320 +828,320 @@
       <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>46</v>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="22">
         <v>3425142353545</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="16"/>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8">
         <v>8146994031</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8">
         <v>9001985764</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="27" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L4" s="5">
         <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="45.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C5" s="29">
         <v>8107061392</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5">
         <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L6" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
       </c>
       <c r="L7" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L9" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I10" s="27" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L10" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" s="26" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L11" s="5">
         <v>91</v>

--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam Ghosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E050D9E9-1CC1-4EB1-ACB8-39D49B38501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4693580-3E4C-435F-B531-12B26115FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>customer_id</t>
   </si>
@@ -53,6 +53,9 @@
     <t>customer_requirements</t>
   </si>
   <si>
+    <t>specific_prompt</t>
+  </si>
+  <si>
     <t>to_call</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
     <t>country_code</t>
   </si>
   <si>
-    <t>specific_prompt</t>
-  </si>
-  <si>
     <t>Alice1 Johnson</t>
   </si>
   <si>
@@ -86,7 +86,7 @@
     <t>Alice is interested in the premium package that includes advanced analytics, priority support, and additional storage capacity. She wants a detailed demo before making the decision.</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>No</t>
   </si>
   <si>
     <t>A Company</t>
@@ -104,9 +104,6 @@
     <t>anand_swarup@technologymindz.com</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>B Company</t>
   </si>
   <si>
@@ -122,7 +119,10 @@
     <t>v@technologymindz.com</t>
   </si>
   <si>
-    <t>vivek is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. He wants a detailed demo before making the decision.</t>
+    <t>vivek is interested in learning more about ai sdr package.</t>
+  </si>
+  <si>
+    <t>tell costumer that we are better than salesforce agentforce. focus on scheduling meeting as quickly as possible.</t>
   </si>
   <si>
     <t>FMS</t>
@@ -131,46 +131,43 @@
     <t>Berlin, Germany</t>
   </si>
   <si>
+    <t>shyam ghosh</t>
+  </si>
+  <si>
+    <t>shyam_ghosh@technologymindz.com</t>
+  </si>
+  <si>
+    <t>shyam is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. She wants a detailed demo before making the decision.</t>
+  </si>
+  <si>
+    <t>before  greeting the user, use ai chatbot inquery</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>D Company</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>bob.smith@example.com</t>
+  </si>
+  <si>
+    <t>E Company</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>charlie.brown@example.com</t>
+  </si>
+  <si>
+    <t>F Company</t>
+  </si>
+  <si>
     <t>Real Estate</t>
-  </si>
-  <si>
-    <t>client is  more quality conscious.</t>
-  </si>
-  <si>
-    <t>shyam ghosh</t>
-  </si>
-  <si>
-    <t>shyam_ghosh@technologymindz.com</t>
-  </si>
-  <si>
-    <t>shyam is interested in the premium package that includes advanced analytics, priority support, and additionAal storage capacity. She wants a detailed demo before making the decision.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>D Company</t>
-  </si>
-  <si>
-    <t>before  greeting the user, use ai chatbot inquery</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>bob.smith@example.com</t>
-  </si>
-  <si>
-    <t>E Company</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>charlie.brown@example.com</t>
-  </si>
-  <si>
-    <t>F Company</t>
   </si>
   <si>
     <t>Gargi</t>
@@ -768,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,18 +777,18 @@
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58" customWidth="1"/>
+    <col min="5" max="6" width="68.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -807,16 +804,16 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -825,14 +822,15 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="45">
+    <row r="2" spans="1:14" ht="45.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -848,25 +846,25 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="16"/>
-      <c r="I2" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="16"/>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -880,270 +878,273 @@
         <v>21</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6502649669</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8">
-        <v>9001985764</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="5">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45.75">
+    <row r="5" spans="1:14" ht="45.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="29">
         <v>8107061392</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="J5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>91</v>
       </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45">
+    <row r="8" spans="1:14" ht="45.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45">
+    <row r="9" spans="1:14" ht="45.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45">
+    <row r="10" spans="1:14" ht="45.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60">
+    <row r="11" spans="1:14" ht="60.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>91</v>
       </c>
     </row>
